--- a/Data/Excel_Wide/camino_gender_wide.xlsx
+++ b/Data/Excel_Wide/camino_gender_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>454</v>
+        <v>908</v>
       </c>
       <c r="E2" t="n">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>910</v>
+        <v>1820</v>
       </c>
       <c r="E3" t="n">
-        <v>491</v>
+        <v>982</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1401</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -544,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1838</v>
+        <v>3676</v>
       </c>
       <c r="E4" t="n">
-        <v>1267</v>
+        <v>2534</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3105</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -572,10 +572,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>8437</v>
+        <v>16874</v>
       </c>
       <c r="E5" t="n">
-        <v>7117</v>
+        <v>14234</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15554</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -600,10 +600,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>9778</v>
+        <v>19556</v>
       </c>
       <c r="E6" t="n">
-        <v>7082</v>
+        <v>14164</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16860</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -628,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>11223</v>
+        <v>22446</v>
       </c>
       <c r="E7" t="n">
-        <v>8072</v>
+        <v>16144</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19295</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>17096</v>
+        <v>34192</v>
       </c>
       <c r="E8" t="n">
-        <v>14795</v>
+        <v>29590</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>31891</v>
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -684,10 +684,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>25014</v>
+        <v>50028</v>
       </c>
       <c r="E9" t="n">
-        <v>20587</v>
+        <v>41174</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>45601</v>
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -712,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>12737</v>
+        <v>25474</v>
       </c>
       <c r="E10" t="n">
-        <v>10015</v>
+        <v>20030</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22752</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -740,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>8337</v>
+        <v>16674</v>
       </c>
       <c r="E11" t="n">
-        <v>6219</v>
+        <v>12438</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14556</v>
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -768,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>2454</v>
+        <v>4908</v>
       </c>
       <c r="E12" t="n">
-        <v>1956</v>
+        <v>3912</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4410</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -796,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>2105</v>
+        <v>4210</v>
       </c>
       <c r="E13" t="n">
-        <v>1697</v>
+        <v>3394</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3802</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -824,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>196</v>
+        <v>392</v>
       </c>
       <c r="E14" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -852,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>333</v>
+        <v>666</v>
       </c>
       <c r="E15" t="n">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>565</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -880,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1875</v>
+        <v>3750</v>
       </c>
       <c r="E16" t="n">
-        <v>1246</v>
+        <v>2492</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3121</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -908,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1944</v>
+        <v>3888</v>
       </c>
       <c r="E17" t="n">
-        <v>1363</v>
+        <v>2726</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3307</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -936,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>5635</v>
+        <v>11270</v>
       </c>
       <c r="E18" t="n">
-        <v>3675</v>
+        <v>7350</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9310</v>
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -964,10 +964,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>7859</v>
+        <v>15718</v>
       </c>
       <c r="E19" t="n">
-        <v>4760</v>
+        <v>9520</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>12619</v>
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -992,10 +992,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>10677</v>
+        <v>21354</v>
       </c>
       <c r="E20" t="n">
-        <v>8127</v>
+        <v>16254</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>18804</v>
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -1020,10 +1020,10 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>14468</v>
+        <v>28936</v>
       </c>
       <c r="E21" t="n">
-        <v>10363</v>
+        <v>20726</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>24831</v>
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -1048,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>7155</v>
+        <v>14310</v>
       </c>
       <c r="E22" t="n">
-        <v>5013</v>
+        <v>10026</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>12168</v>
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -1076,10 +1076,10 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>4142</v>
+        <v>8284</v>
       </c>
       <c r="E23" t="n">
-        <v>2731</v>
+        <v>5462</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6873</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -1104,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>928</v>
+        <v>1856</v>
       </c>
       <c r="E24" t="n">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1388</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -1132,10 +1132,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>495</v>
+        <v>990</v>
       </c>
       <c r="E25" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>668</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -1160,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>241</v>
+        <v>482</v>
       </c>
       <c r="E26" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -1188,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="E27" t="n">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -1216,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>710</v>
+        <v>1420</v>
       </c>
       <c r="E28" t="n">
-        <v>386</v>
+        <v>772</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1096</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -1244,10 +1244,10 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>4333</v>
+        <v>8666</v>
       </c>
       <c r="E29" t="n">
-        <v>3118</v>
+        <v>6236</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7451</v>
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -1272,10 +1272,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>6212</v>
+        <v>12424</v>
       </c>
       <c r="E30" t="n">
-        <v>3935</v>
+        <v>7870</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>10147</v>
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -1300,10 +1300,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>8037</v>
+        <v>16074</v>
       </c>
       <c r="E31" t="n">
-        <v>4974</v>
+        <v>9948</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>13011</v>
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -1328,10 +1328,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>10513</v>
+        <v>21026</v>
       </c>
       <c r="E32" t="n">
-        <v>8207</v>
+        <v>16414</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>18720</v>
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -1356,10 +1356,10 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>15373</v>
+        <v>30746</v>
       </c>
       <c r="E33" t="n">
-        <v>10810</v>
+        <v>21620</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>26183</v>
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -1384,10 +1384,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>7819</v>
+        <v>15638</v>
       </c>
       <c r="E34" t="n">
-        <v>5651</v>
+        <v>11302</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>13470</v>
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -1412,10 +1412,10 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>4602</v>
+        <v>9204</v>
       </c>
       <c r="E35" t="n">
-        <v>3098</v>
+        <v>6196</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7700</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -1440,10 +1440,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>1167</v>
+        <v>2334</v>
       </c>
       <c r="E36" t="n">
-        <v>588</v>
+        <v>1176</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1755</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -1468,10 +1468,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="E37" t="n">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>848</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -1496,10 +1496,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>252</v>
+        <v>504</v>
       </c>
       <c r="E38" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -1524,10 +1524,10 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>418</v>
+        <v>836</v>
       </c>
       <c r="E39" t="n">
-        <v>247</v>
+        <v>494</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>665</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -1552,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1057</v>
+        <v>2114</v>
       </c>
       <c r="E40" t="n">
-        <v>623</v>
+        <v>1246</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1680</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -1580,10 +1580,10 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>4690</v>
+        <v>9380</v>
       </c>
       <c r="E41" t="n">
-        <v>3425</v>
+        <v>6850</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8115</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -1608,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>7725</v>
+        <v>15450</v>
       </c>
       <c r="E42" t="n">
-        <v>5199</v>
+        <v>10398</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>12924</v>
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -1636,10 +1636,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>9110</v>
+        <v>18220</v>
       </c>
       <c r="E43" t="n">
-        <v>6072</v>
+        <v>12144</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>15182</v>
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -1664,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>11295</v>
+        <v>22590</v>
       </c>
       <c r="E44" t="n">
-        <v>8861</v>
+        <v>17722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>20156</v>
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -1692,10 +1692,10 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>15912</v>
+        <v>31824</v>
       </c>
       <c r="E45" t="n">
-        <v>11377</v>
+        <v>22754</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>27289</v>
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -1720,10 +1720,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>8802</v>
+        <v>17604</v>
       </c>
       <c r="E46" t="n">
-        <v>6480</v>
+        <v>12960</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>15282</v>
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -6745,6 +6745,62 @@
       </c>
       <c r="H225" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>6071</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5212</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2641</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2041</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_gender_wide.xlsx
+++ b/Data/Excel_Wide/camino_gender_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>908</v>
+        <v>454</v>
       </c>
       <c r="E2" t="n">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1820</v>
+        <v>910</v>
       </c>
       <c r="E3" t="n">
-        <v>982</v>
+        <v>491</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -544,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3676</v>
+        <v>1838</v>
       </c>
       <c r="E4" t="n">
-        <v>2534</v>
+        <v>1267</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -572,10 +572,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>16874</v>
+        <v>8437</v>
       </c>
       <c r="E5" t="n">
-        <v>14234</v>
+        <v>7117</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -600,10 +600,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>19556</v>
+        <v>9778</v>
       </c>
       <c r="E6" t="n">
-        <v>14164</v>
+        <v>7082</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -628,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>22446</v>
+        <v>11223</v>
       </c>
       <c r="E7" t="n">
-        <v>16144</v>
+        <v>8072</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>34192</v>
+        <v>17096</v>
       </c>
       <c r="E8" t="n">
-        <v>29590</v>
+        <v>14795</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -684,10 +684,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>50028</v>
+        <v>25014</v>
       </c>
       <c r="E9" t="n">
-        <v>41174</v>
+        <v>20587</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -712,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>25474</v>
+        <v>12737</v>
       </c>
       <c r="E10" t="n">
-        <v>20030</v>
+        <v>10015</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -740,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>16674</v>
+        <v>8337</v>
       </c>
       <c r="E11" t="n">
-        <v>12438</v>
+        <v>6219</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -768,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>4908</v>
+        <v>2454</v>
       </c>
       <c r="E12" t="n">
-        <v>3912</v>
+        <v>1956</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -796,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>4210</v>
+        <v>2105</v>
       </c>
       <c r="E13" t="n">
-        <v>3394</v>
+        <v>1697</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -824,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="E14" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -852,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>666</v>
+        <v>333</v>
       </c>
       <c r="E15" t="n">
-        <v>464</v>
+        <v>232</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -880,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3750</v>
+        <v>1875</v>
       </c>
       <c r="E16" t="n">
-        <v>2492</v>
+        <v>1246</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -908,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>3888</v>
+        <v>1944</v>
       </c>
       <c r="E17" t="n">
-        <v>2726</v>
+        <v>1363</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -936,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>11270</v>
+        <v>5635</v>
       </c>
       <c r="E18" t="n">
-        <v>7350</v>
+        <v>3675</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -964,10 +964,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>15718</v>
+        <v>7859</v>
       </c>
       <c r="E19" t="n">
-        <v>9520</v>
+        <v>4760</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -992,10 +992,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>21354</v>
+        <v>10677</v>
       </c>
       <c r="E20" t="n">
-        <v>16254</v>
+        <v>8127</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -1020,10 +1020,10 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>28936</v>
+        <v>14468</v>
       </c>
       <c r="E21" t="n">
-        <v>20726</v>
+        <v>10363</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -1048,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>14310</v>
+        <v>7155</v>
       </c>
       <c r="E22" t="n">
-        <v>10026</v>
+        <v>5013</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -1076,10 +1076,10 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>8284</v>
+        <v>4142</v>
       </c>
       <c r="E23" t="n">
-        <v>5462</v>
+        <v>2731</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -1104,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>1856</v>
+        <v>928</v>
       </c>
       <c r="E24" t="n">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -1132,10 +1132,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>990</v>
+        <v>495</v>
       </c>
       <c r="E25" t="n">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -1160,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>482</v>
+        <v>241</v>
       </c>
       <c r="E26" t="n">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -1188,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="E27" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -1216,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1420</v>
+        <v>710</v>
       </c>
       <c r="E28" t="n">
-        <v>772</v>
+        <v>386</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -1244,10 +1244,10 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>8666</v>
+        <v>4333</v>
       </c>
       <c r="E29" t="n">
-        <v>6236</v>
+        <v>3118</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -1272,10 +1272,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>12424</v>
+        <v>6212</v>
       </c>
       <c r="E30" t="n">
-        <v>7870</v>
+        <v>3935</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -1300,10 +1300,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>16074</v>
+        <v>8037</v>
       </c>
       <c r="E31" t="n">
-        <v>9948</v>
+        <v>4974</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -1328,10 +1328,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>21026</v>
+        <v>10513</v>
       </c>
       <c r="E32" t="n">
-        <v>16414</v>
+        <v>8207</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -1356,10 +1356,10 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>30746</v>
+        <v>15373</v>
       </c>
       <c r="E33" t="n">
-        <v>21620</v>
+        <v>10810</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -1384,10 +1384,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>15638</v>
+        <v>7819</v>
       </c>
       <c r="E34" t="n">
-        <v>11302</v>
+        <v>5651</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -1412,10 +1412,10 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>9204</v>
+        <v>4602</v>
       </c>
       <c r="E35" t="n">
-        <v>6196</v>
+        <v>3098</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -1440,10 +1440,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>2334</v>
+        <v>1167</v>
       </c>
       <c r="E36" t="n">
-        <v>1176</v>
+        <v>588</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -1468,10 +1468,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>1210</v>
+        <v>605</v>
       </c>
       <c r="E37" t="n">
-        <v>486</v>
+        <v>243</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -1496,10 +1496,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>504</v>
+        <v>252</v>
       </c>
       <c r="E38" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -1524,10 +1524,10 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>836</v>
+        <v>418</v>
       </c>
       <c r="E39" t="n">
-        <v>494</v>
+        <v>247</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -1552,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>2114</v>
+        <v>1057</v>
       </c>
       <c r="E40" t="n">
-        <v>1246</v>
+        <v>623</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -1580,10 +1580,10 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>9380</v>
+        <v>4690</v>
       </c>
       <c r="E41" t="n">
-        <v>6850</v>
+        <v>3425</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -1608,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>15450</v>
+        <v>7725</v>
       </c>
       <c r="E42" t="n">
-        <v>10398</v>
+        <v>5199</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -1636,10 +1636,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>18220</v>
+        <v>9110</v>
       </c>
       <c r="E43" t="n">
-        <v>12144</v>
+        <v>6072</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -1664,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>22590</v>
+        <v>11295</v>
       </c>
       <c r="E44" t="n">
-        <v>17722</v>
+        <v>8861</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -1692,10 +1692,10 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>31824</v>
+        <v>15912</v>
       </c>
       <c r="E45" t="n">
-        <v>22754</v>
+        <v>11377</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -1720,10 +1720,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>17604</v>
+        <v>8802</v>
       </c>
       <c r="E46" t="n">
-        <v>12960</v>
+        <v>6480</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -6801,6 +6801,34 @@
       </c>
       <c r="H227" t="n">
         <v>4683</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1228</v>
+      </c>
+      <c r="E228" t="n">
+        <v>800</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
